--- a/khurana_cv/data/training.xlsx
+++ b/khurana_cv/data/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F8883-5CF3-493C-B266-4D4A22D78D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB3320-9687-458E-978A-D401DEA0320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Seattle, Washington and Virtual</t>
   </si>
   <si>
-    <t>valid upto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Collaborative Institutional Training Initiative (CITI)</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>https://about.citiprogram.org/series/responsible-conduct-of-research-rcr/</t>
+  </si>
+  <si>
+    <t>valid_upto</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -570,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -628,13 +628,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -688,53 +688,53 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>46205</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>46161</v>
       </c>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
       <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
         <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/training.xlsx
+++ b/khurana_cv/data/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB3320-9687-458E-978A-D401DEA0320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954F93E-494B-4BEF-A8CA-6CB1545F71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>objective</t>
   </si>
   <si>
-    <t>Research Transparency and Reproducibility Training (RT2) funding</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>valid_upto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Transparency and Reproducibility Training (RT2) </t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D1:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,13 +552,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -570,15 +570,15 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>45448</v>
@@ -592,24 +592,24 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>45469</v>
@@ -622,24 +622,24 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>45516</v>
@@ -652,24 +652,24 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>45546</v>
@@ -682,59 +682,59 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>46205</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
       <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
         <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>46161</v>
       </c>
       <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/training.xlsx
+++ b/khurana_cv/data/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954F93E-494B-4BEF-A8CA-6CB1545F71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A9C91-4FBB-49D4-BAFF-5BFC8D73F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">Research Transparency and Reproducibility Training (RT2) </t>
+  </si>
+  <si>
+    <t>short_cv</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +547,7 @@
     <col min="10" max="10" width="104.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +581,11 @@
       <c r="K1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -606,8 +615,11 @@
       <c r="K2" t="s">
         <v>26</v>
       </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -636,8 +648,11 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -666,8 +681,11 @@
       <c r="K4" t="s">
         <v>31</v>
       </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -696,8 +714,11 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -717,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>

--- a/khurana_cv/data/training.xlsx
+++ b/khurana_cv/data/training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A9C91-4FBB-49D4-BAFF-5BFC8D73F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A1E99-AF05-4581-A5DF-A8F58F10AD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>https://teaching.uoregon.edu/resources/graduate-writing-program-uo-graduate-students</t>
+  </si>
+  <si>
+    <t>Graduate Writing Program</t>
+  </si>
+  <si>
+    <t>University of Oregon Center on Diversity and Community and Division of Graduate Studies</t>
+  </si>
+  <si>
+    <t>Eugene, OR</t>
+  </si>
+  <si>
+    <t>Improve the effectiveness of graduate student writers: to conceptualize their writing projects, create arguments, engage in deep revision, and strengthen their daily writing practices</t>
   </si>
 </sst>
 </file>
@@ -533,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="104.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="104.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -619,7 +634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -652,7 +667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -685,7 +700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -718,7 +733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -738,7 +753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -756,6 +771,32 @@
       </c>
       <c r="K7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45801</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/training.xlsx
+++ b/khurana_cv/data/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A1E99-AF05-4581-A5DF-A8F58F10AD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8743519F-B905-44F4-BCE5-4A7FC0202CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Berkley, California</t>
   </si>
   <si>
-    <t>US Department of Education and American Institute for Research</t>
-  </si>
-  <si>
     <t>Arlington, Virginia</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Improve the effectiveness of graduate student writers: to conceptualize their writing projects, create arguments, engage in deep revision, and strengthen their daily writing practices</t>
+  </si>
+  <si>
+    <t>US Department of Education and American Institutes for Research</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,13 +573,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -591,18 +591,18 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>45448</v>
@@ -622,16 +622,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="116" x14ac:dyDescent="0.35">
@@ -649,22 +649,22 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -688,21 +688,21 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>45546</v>
@@ -715,67 +715,67 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>46205</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>46161</v>
       </c>
       <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
       <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
         <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>45674</v>
@@ -787,16 +787,16 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
